--- a/biology/Botanique/Alcaloïde_pyrrolizidinique/Alcaloïde_pyrrolizidinique.xlsx
+++ b/biology/Botanique/Alcaloïde_pyrrolizidinique/Alcaloïde_pyrrolizidinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alcalo%C3%AFde_pyrrolizidinique</t>
+          <t>Alcaloïde_pyrrolizidinique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les alcaloïdes pyrrolizidiniques forment une classe d'alcaloïdes et de métabolites secondaires, caractérisés par une structure pyrrolizidine formée de deux cycles pyrroles. Ces alcaloïdes sont produits par les plantes et constituent un mécanisme de défense contre les animaux herbivores.
-Il n'a été trouvé aucune application thérapeutique à ces alcaloïdes et c'est plutôt leur toxicité qui doit retenir l'attention[1].
+Il n'a été trouvé aucune application thérapeutique à ces alcaloïdes et c'est plutôt leur toxicité qui doit retenir l'attention.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alcalo%C3%AFde_pyrrolizidinique</t>
+          <t>Alcaloïde_pyrrolizidinique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus de 200 alcaloïdes pyrrolizidiniques ont été identifiés dans treize familles de plantes[2]. Une analyse italienne portant sur 117 herbes et 7 mélanges commerciaux par spectrométrie de masse à haute résolution (2017) montre la présence d'alcaloïdes dans 52 % des plantes et 42 % des mélanges commerciaux, 26 % des échantillons contenant des alcaloïdes pyrrolozidiniques. Leur migration dans des infusions faites à la maison a été confirmée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 200 alcaloïdes pyrrolizidiniques ont été identifiés dans treize familles de plantes. Une analyse italienne portant sur 117 herbes et 7 mélanges commerciaux par spectrométrie de masse à haute résolution (2017) montre la présence d'alcaloïdes dans 52 % des plantes et 42 % des mélanges commerciaux, 26 % des échantillons contenant des alcaloïdes pyrrolozidiniques. Leur migration dans des infusions faites à la maison a été confirmée.
 On les rencontre principalement chez toutes les plantes de la famille des Boraginaceae, chez les Asteraceae et plus accessoirement les Fabaceae, dans les genres Crotalaria, Chromolaena et Lotononis, chez les Apocynaceae, les Euphorbiaceae, les Orchidaceae, les Poaceae, etc.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alcalo%C3%AFde_pyrrolizidinique</t>
+          <t>Alcaloïde_pyrrolizidinique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des alcaloïdes pyrrolizidiniques sont des esters formés entre des aminoalcools et un ou deux acides carboxyliques aliphatiques[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des alcaloïdes pyrrolizidiniques sont des esters formés entre des aminoalcools et un ou deux acides carboxyliques aliphatiques.
 Les aminoalcools concernés dérivent de la pyrrolizidine et sont appelés des nécines. La dénomination d'un certain nombre d'entre eux se fait à partir du radical nécine : rétro.nécine, platy.nécine, rosmari.nécine etc. Le cycle est toujours substitué par un groupe hydroxyméthyle (–CH2OH) en C-1 et avec parfois une fonction alcool secondaire (–OH) en C-7 (rétronécine, héliotridine, platynécine) ou en C-2 (rosmarinécine) ou en C-6 (crotanécine). La liaison 1-2 peut être double.
 			pyrrolizidine
 			rétronécine
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcalo%C3%AFde_pyrrolizidinique</t>
+          <t>Alcaloïde_pyrrolizidinique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,21 +607,13 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des alcaloïdes pyrrolizidiniques[4],[5] sont mutagènes et inducteurs de tumeurs hépatiques.
-Il a été montré chez le rat[1] que des alcaloïdes pyrrolizidiniques comme les rétrorsine, senkirkine, monocrotaline, lasiocarpine et symphytine et plusieurs plantes (Tussilago farfara L., Symphytum officinale L., Petasites japonicus Maxim. etc.) pouvaient provoquer des tumeurs hépatiques lorsqu'ils sont administrés régulièrement par voie orale. Il a aussi été prouvé expérimentalement que plusieurs alcaloïdes du groupe étaient mutagènes et tératogènes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des alcaloïdes pyrrolizidiniques, sont mutagènes et inducteurs de tumeurs hépatiques.
+Il a été montré chez le rat que des alcaloïdes pyrrolizidiniques comme les rétrorsine, senkirkine, monocrotaline, lasiocarpine et symphytine et plusieurs plantes (Tussilago farfara L., Symphytum officinale L., Petasites japonicus Maxim. etc.) pouvaient provoquer des tumeurs hépatiques lorsqu'ils sont administrés régulièrement par voie orale. Il a aussi été prouvé expérimentalement que plusieurs alcaloïdes du groupe étaient mutagènes et tératogènes.
 Les diesters macrocycliques (sénécionine, rétrorsine, sénéciphylline, ridelline) sont les plus toxiques. Puis viennent les diesters, qui sont plus toxiques que les monoesters.
-Chez l'homme
-La consommation régulière d'herbes médicinales[6] contenant ces composés peut être responsable de graves intoxications hépatiques. L'intoxication chronique se traduit par une perte d'appétit, des douleurs, une distension abdominale, une augmentation du volume du foie (hépatomégalie).
-Toutes les parties de la consoude (Symphytum officinale) contiennent des alcaloïdes pyrrolizidiniques comme l'intermédine, la lycopsamine, la 7-acétyl-intermédine. En raison de leur toxicité, l'usage interne de Symphytum officinale est interdit dans de nombreux pays.
-En Guadeloupe, une plante commune, la sonnette (Crotalaria retusa L.) sert à confectionner un "thé de sonnette" remède populaire contre beaucoup d'indispositions. D'après Fournet[7] "De nombreux cas d'intoxications graves ont été constatés, surtout chez les enfants".
-Les autres "plantes médicinales" contenant ces composés hépatotoxiques sont : le tussilage, la bourrache, héliotropes, cynoglosses et séneçons etc.
-Des alcaloïdes pyrrolizidiniques ont été identifiés dans les herbes médicinales de Chine[8], d'Amérique du Sud et du Sri Lanka[2].
-Chez les animaux
-En général, le bétail évite les plantes à alcaloïdes pyrrolizidiniques. Mais des fourrages et des ensilages contaminés peuvent conduire à une intoxication chronique. Les animaux les plus sensibles sont les porcs, suivis par les chevaux et les bovins et les chèvres. Le lait de vache ou de chèvre peut être contaminé par ces composés hépatotoxiques.
-De grands épisodes d'empoisonnement ont été décrits en Afghanistan, en Inde et dans l'ancienne URSS du fait de la contamination des récoltes de blé par des Boraginacées[2] (Heliotropium lasiocarpum, H. popovii, H. europaeum).
-Certains insectes se nourrissent de plantes qui contiennent des alcaloïdes pyrrolizidiniques. C'est le cas de lépidoptères de la sous-famille des Danainae, qui font différents usages de ces molécules. Par exemple, la danaidone est une phéromone sexuelle dérivée d'alcaloïdes pyrrolizidiniques qui est émise par les mâles pour attirer les femelles[9],[10].
 </t>
         </is>
       </c>
@@ -616,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alcalo%C3%AFde_pyrrolizidinique</t>
+          <t>Alcaloïde_pyrrolizidinique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,14 +639,96 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation régulière d'herbes médicinales contenant ces composés peut être responsable de graves intoxications hépatiques. L'intoxication chronique se traduit par une perte d'appétit, des douleurs, une distension abdominale, une augmentation du volume du foie (hépatomégalie).
+Toutes les parties de la consoude (Symphytum officinale) contiennent des alcaloïdes pyrrolizidiniques comme l'intermédine, la lycopsamine, la 7-acétyl-intermédine. En raison de leur toxicité, l'usage interne de Symphytum officinale est interdit dans de nombreux pays.
+En Guadeloupe, une plante commune, la sonnette (Crotalaria retusa L.) sert à confectionner un "thé de sonnette" remède populaire contre beaucoup d'indispositions. D'après Fournet "De nombreux cas d'intoxications graves ont été constatés, surtout chez les enfants".
+Les autres "plantes médicinales" contenant ces composés hépatotoxiques sont : le tussilage, la bourrache, héliotropes, cynoglosses et séneçons etc.
+Des alcaloïdes pyrrolizidiniques ont été identifiés dans les herbes médicinales de Chine, d'Amérique du Sud et du Sri Lanka.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alcaloïde_pyrrolizidinique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcalo%C3%AFde_pyrrolizidinique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez les animaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, le bétail évite les plantes à alcaloïdes pyrrolizidiniques. Mais des fourrages et des ensilages contaminés peuvent conduire à une intoxication chronique. Les animaux les plus sensibles sont les porcs, suivis par les chevaux et les bovins et les chèvres. Le lait de vache ou de chèvre peut être contaminé par ces composés hépatotoxiques.
+De grands épisodes d'empoisonnement ont été décrits en Afghanistan, en Inde et dans l'ancienne URSS du fait de la contamination des récoltes de blé par des Boraginacées (Heliotropium lasiocarpum, H. popovii, H. europaeum).
+Certains insectes se nourrissent de plantes qui contiennent des alcaloïdes pyrrolizidiniques. C'est le cas de lépidoptères de la sous-famille des Danainae, qui font différents usages de ces molécules. Par exemple, la danaidone est une phéromone sexuelle dérivée d'alcaloïdes pyrrolizidiniques qui est émise par les mâles pour attirer les femelles,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alcaloïde_pyrrolizidinique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcalo%C3%AFde_pyrrolizidinique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Plantes contenant des alcaloïdes pyrrolizidiniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces alcaloïdes ont été trouvés dans 350 espèces de plantes. En voici un échantillon :
 Ageratum conyzoides
-Ageratum houstonianum [11]
+Ageratum houstonianum 
 Arnebia euchroma
 Borago officinalis, bourrache
 Cacalia hastata
@@ -656,7 +746,7 @@
 Cynoglossum lanceolatum
 Cynoglossum officinale
 Cynoglossum zeylanicum
-Echium plantagineum[12]
+Echium plantagineum
 Emilia sonchifolia
 Eupatorium cannabinum
 Eupatorium chinense
@@ -666,8 +756,8 @@
 Gynura bicolor
 Gynura divaricata
 Gynura segetum
-Heliotropium amplexicaule[12]
-Heliotropium europaeum[12]
+Heliotropium amplexicaule
+Heliotropium europaeum
 Heliotropium indicum
 Lappula intermedia
 Ligularia cymbulifera
@@ -688,19 +778,19 @@
 Origanum vulgare, origan
 Petasites japonicus
 Senecio argunensis
-Senecio brasiliensis[13]
+Senecio brasiliensis
 Senecio chrysanthemoides
 Senecio integrifolius var. fauriri
-Senecio jacobaea[12]
-Senecio lautus[12]
-Senecio linearifolius[12]
-Senecio madagascariensis[12]
+Senecio jacobaea
+Senecio lautus
+Senecio linearifolius
+Senecio madagascariensis
 Senecio nemorensis
-Senecio quadridentatus[12]
+Senecio quadridentatus
 Senecio scandens
 Senecio vulgaris, séneçon commun
 Syneilesis aconitifolia
-Symphytum officinale [14], consoude
+Symphytum officinale , consoude
 Tussilago farfara, tussilage
 </t>
         </is>
